--- a/biology/Botanique/Lycopodiopsida/Lycopodiopsida.xlsx
+++ b/biology/Botanique/Lycopodiopsida/Lycopodiopsida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycopodiophyta, Lycopodiidae · Lycophytes
 Les Lycopodiopsides (Lycopodiopsida), couramment appelées lycophytes, sont une classe de plantes vasculaires comprenant notamment les lycopodes et les isoëtes. Dans d'anciennes classifications, elles correspondent à la division des Lycopodiophytes (Lycopodiophyta) séparées en deux classes.
-Dans la classification APG III selon Chase et Reveal (2009)[2], elles correspondent à la sous-classe des Lycopodiidées (Lycopodiidae).
+Dans la classification APG III selon Chase et Reveal (2009), elles correspondent à la sous-classe des Lycopodiidées (Lycopodiidae).
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lycophytes forment le groupe le plus primitif des plantes vasculaires actuelles. Ce sont des végétaux à ramifications dichotomique, avec notamment un rhizome ou rhizophore basal dichotomiquement divisé. Leurs feuilles sont sessiles. Il s'agit de végétaux homosporés ou hétérosporés.
-L'étude des genres fossiles primitifs démontre que les coiffes de leurs racines sont apparues plus tardivement que chez les autres plantes vasculaires (Euphyllophyta) et a permis d'établir que les racines des lycophytes sont une évolution convergente à celle des autres Trachéophytes. Les racines sont donc apparues deux fois dans l'évolution des plantes vasculaires[3],[4].
+L'étude des genres fossiles primitifs démontre que les coiffes de leurs racines sont apparues plus tardivement que chez les autres plantes vasculaires (Euphyllophyta) et a permis d'établir que les racines des lycophytes sont une évolution convergente à celle des autres Trachéophytes. Les racines sont donc apparues deux fois dans l'évolution des plantes vasculaires,.
 Composées de grands arbres durant l'ère Primaire (notamment les genres Sigillaria et Lepidodendron), les Lycophytes ne comprennent plus aujourd'hui que des plantes herbacées. On en compte un millier d'espèces actuelles environ.
 </t>
         </is>
@@ -548,15 +562,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ordres actuels
-Liste des ordres actuels selon le Pteridophyte Phylogeny Group (2016)[5] et ITIS[6] :
+          <t>Ordres actuels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des ordres actuels selon le Pteridophyte Phylogeny Group (2016) et ITIS :
 (sous-classe Lycopodiidae Beketov, 1863) :
 Isoëtales Prantl, 1874 – les isoètes (un seul genre actuel)
 Lycopodiales DC. ex Bercht. &amp; J.Presl, 1820 – les lycopodes
 Selaginellales Prantl, 1874 – les sélaginelles (un seul genre actuel)
 Dans l'ancien systeme à deux classes, Isoëtales et Selaginellales étaient regroupés dans la classe Isoetopsida Rolle, 1885.
-Taxons fossiles
-Liste des ordres fossiles d'après Thomas &amp; Brack-Hanes (1984)[7] et Taylor, T.N. &amp; Taylor, E.L. (1993)[8] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lycopodiopsida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycopodiopsida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des ordres fossiles d'après Thomas &amp; Brack-Hanes (1984) et Taylor, T.N. &amp; Taylor, E.L. (1993) :
 † Drepanophycales Novak, 1961
 † Lepidodendrales Prand, 1883 (= † Lepidocarpales G.M. Smith, 1938)
 († Miadesmiales Doweld, 2001 ;  ou inclus dans Selaginellales)
@@ -568,37 +622,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lycopodiopsida</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lycopodiopsida</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Phylogénie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016)[9] :
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -620,10 +643,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lycopodiopsida</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lycopodiopsida</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Scott D.H., Stud. Foss. Pl., ed. 2: 616, 617 (1909) (en tant que "Lycopsida").</t>
         </is>
